--- a/лабы/Лаба 15/результат.xlsx
+++ b/лабы/Лаба 15/результат.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeka8833\IdeaProjects\LabsKPITwo\лабы\Лаба 15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF380DEA-BBB2-406E-B034-0300AC3D306E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7125E9-93FB-4183-BCDA-C473037D2CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,6 +36,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+  <si>
+    <t>L(x)</t>
+  </si>
+  <si>
+    <t>f(x) - L(x)</t>
+  </si>
+  <si>
     <t>i</t>
   </si>
   <si>
@@ -46,18 +58,6 @@
   </si>
   <si>
     <t>====================</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>f(x)</t>
-  </si>
-  <si>
-    <t>L(x)</t>
-  </si>
-  <si>
-    <t>f(x) - L(x)</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0715223097112861E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.93628477690288714"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -168,11 +178,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$1</c:f>
+              <c:f>Лист1!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yi</c:v>
+                  <c:v>f(x)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -187,154 +197,382 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$21</c:f>
+              <c:f>Лист1!$A$10:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>-6.0508474576271096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>-5.9491525423728797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>-5.84745762711864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>-5.7457627118644004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>-5.6440677966101598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>-5.5423728813559299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42857142857142799</c:v>
+                  <c:v>-5.4406779661016902</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.375</c:v>
+                  <c:v>-5.3389830508474496</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33333333333333298</c:v>
+                  <c:v>-5.2372881355932197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3</c:v>
+                  <c:v>-5.13559322033898</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27272727272727199</c:v>
+                  <c:v>-5.0338983050847403</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25</c:v>
+                  <c:v>-4.9322033898304998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23076923076923</c:v>
+                  <c:v>-4.8305084745762699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.214285714285714</c:v>
+                  <c:v>-4.7288135593220302</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2</c:v>
+                  <c:v>-4.6271186440677896</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1875</c:v>
+                  <c:v>-4.5254237288135597</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17647058823529399</c:v>
+                  <c:v>-4.42372881355932</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16666666666666599</c:v>
+                  <c:v>-4.3220338983050803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.157894736842105</c:v>
+                  <c:v>-4.2203389830508398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.15</c:v>
+                  <c:v>-4.1186440677966099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.0169491525423702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.91525423728813</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.8135593220338899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.71186440677966</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.6101694915254199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.5084745762711802</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.4067796610169401</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.3050847457627102</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.20338983050847</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.1016949152542299</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.8983050847457599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.7966101694915202</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.6949152542372801</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.5932203389830502</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.49152542372881</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.3898305084745699</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.2881355932203302</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.1864406779660999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.0847457627118602</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.9830508474576201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.8813559322033799</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.77966101694915</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.6779661016949099</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.57627118644067</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.4745762711864401</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.3728813559322</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.2711864406779601</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.1694915254237199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.06779661016949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.96610169491525399</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.86440677966101598</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.76271186440677896</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.66101694915254205</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.55932203389830404</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.45762711864406702</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.35593220338983</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.25423728813559299</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.152542372881355</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-5.0847457627118502E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$21</c:f>
+              <c:f>Лист1!$B$10:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>-4.9821250725900903</c:v>
+                  <c:v>-282.46063208138901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62927945509481698</c:v>
+                  <c:v>-259.49765898540102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1752011936438</c:v>
+                  <c:v>-238.56042901596101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.69731673193583</c:v>
+                  <c:v>-219.457060401414</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.91665358214824</c:v>
+                  <c:v>-202.01422506555599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0210953054937399</c:v>
+                  <c:v>-186.07535454828701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.07446503708656</c:v>
+                  <c:v>-171.49901940122399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1026010679136098</c:v>
+                  <c:v>-158.157465283775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1173183350339202</c:v>
+                  <c:v>-145.93529060712399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1245202934471399</c:v>
+                  <c:v>-134.728252038731</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1273604547000202</c:v>
+                  <c:v>-124.44218550340101</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1276123168081602</c:v>
+                  <c:v>-114.99203151243201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1263140634741902</c:v>
+                  <c:v>-106.300954732275</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.12409269057411</c:v>
+                  <c:v>-98.299548679534894</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1213360025410899</c:v>
+                  <c:v>-90.925117310305197</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.1182880656202898</c:v>
+                  <c:v>-84.121026067735102</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1151042157781599</c:v>
+                  <c:v>-77.836115670659197</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1118837884319599</c:v>
+                  <c:v>-72.024172575559106</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.1086901316152602</c:v>
+                  <c:v>-66.643450630724701</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.1055631331516098</c:v>
+                  <c:v>-61.656238971369099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-57.028471683076702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-52.729375193301003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-48.7311497411403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-45.008681628359703</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-41.539283273234702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-38.302458376571998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-35.279689769196303</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-32.454247744959403</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-29.8110168953719</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-27.3363396534603</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-25.017874927409899</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-22.844470360740299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-20.806046896810599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-18.893494452804202</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-17.098577623342202</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-15.4138504376821</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-13.8325792881749</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-12.3486732322293</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-10.956620946356001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-9.6514336797161704</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8.4285936167004696</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.28400711405141</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-6.2139623284963896</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-5.2150907963054802</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4.2843325670923598</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-3.41890453096652</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.6162716111981599</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.8741205242177601</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.1903358353459399</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.56297806241213899</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.7363993826271502E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52945373915175997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.997699769650784</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4158957206168199</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.7853729495931301</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1073867225070599</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.38312920664112</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.6137418104843002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.8003269981907399</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.94395970093453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -342,7 +580,418 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B32F-4E01-9232-C7D558924FBA}"/>
+              <c16:uniqueId val="{00000000-B850-465B-AFC8-17FE741A6B3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$10:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>-6.0508474576271096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.9491525423728797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.84745762711864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.7457627118644004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.6440677966101598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.5423728813559299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.4406779661016902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.3389830508474496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.2372881355932197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.13559322033898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.0338983050847403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.9322033898304998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.8305084745762699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.7288135593220302</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.6271186440677896</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.5254237288135597</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.42372881355932</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.3220338983050803</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.2203389830508398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.1186440677966099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.0169491525423702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.91525423728813</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.8135593220338899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.71186440677966</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.6101694915254199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.5084745762711802</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.4067796610169401</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.3050847457627102</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.20338983050847</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.1016949152542299</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.8983050847457599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.7966101694915202</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.6949152542372801</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.5932203389830502</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.49152542372881</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.3898305084745699</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.2881355932203302</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.1864406779660999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.0847457627118602</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.9830508474576201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.8813559322033799</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.77966101694915</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.6779661016949099</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.57627118644067</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.4745762711864401</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.3728813559322</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.2711864406779601</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.1694915254237199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.06779661016949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.96610169491525399</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.86440677966101598</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.76271186440677896</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.66101694915254205</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.55932203389830404</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.45762711864406702</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.35593220338983</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.25423728813559299</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.152542372881355</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-5.0847457627118502E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$10:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>-201.52566464192901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-189.852183882736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-178.772134717444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-168.25935550784101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-158.28855451228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-148.835294601209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-139.87597797247801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-131.38783086710799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-123.348888284541</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-115.737978698289</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-108.53470877141901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-101.71944807196201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-95.273313788524305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-89.178155445717493</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-83.416539619662203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-77.971734653545298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-72.827695373034601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-67.969047801856505</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-63.381073877224402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-59.049696165390699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-54.961462577121402</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-51.1035310832048</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-47.463654429950097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-44.030164854674197</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-40.791958801219302</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-37.738481635436699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-34.859712360698403</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-32.146148333387998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-29.588789978403199</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-27.1791255046533</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-24.909115620560801</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-22.771178249558599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-20.758173245589798</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-18.8633871086078</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-17.0805177000741</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-15.403658958458699</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-13.827285614738701</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-12.3462379078978</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-10.9557063004252</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-9.6512161938151593</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8.4286126440661793</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.2840450771801004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-6.2139520046614196</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-5.2150457390164897</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4.2842971092527202</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-3.4189201763778798</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.6163569488992402</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.8742620983228599</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.1904876746527899</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.56306782189029703</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.7965064668871192E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52975283192536504</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99831243549682303</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4168656421988199</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.7866971055555601</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.10900109209864</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.3848967658678699</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.6154434729120002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.80165602578949</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.9445199880693398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B850-465B-AFC8-17FE741A6B3A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -354,11 +1003,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="952756479"/>
-        <c:axId val="954741135"/>
+        <c:axId val="1403250431"/>
+        <c:axId val="1403250847"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="952756479"/>
+        <c:axId val="1403250431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,12 +1064,12 @@
             <a:endParaRPr lang="ru-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="954741135"/>
+        <c:crossAx val="1403250847"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="954741135"/>
+        <c:axId val="1403250847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +1126,7 @@
             <a:endParaRPr lang="ru-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="952756479"/>
+        <c:crossAx val="1403250431"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -489,6 +1138,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76348600174978132"/>
+          <c:y val="0.74152704870224551"/>
+          <c:w val="0.11984733158355206"/>
+          <c:h val="0.18865850102070572"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -547,15 +1237,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0715223097112861E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.93628477690288714"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x) - L(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -570,198 +1311,378 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$24:$A$53</c:f>
+              <c:f>Лист1!$A$10:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-6.0508474576271096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10344827586206801</c:v>
+                  <c:v>-5.9491525423728797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20689655172413701</c:v>
+                  <c:v>-5.84745762711864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31034482758620602</c:v>
+                  <c:v>-5.7457627118644004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41379310344827502</c:v>
+                  <c:v>-5.6440677966101598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51724137931034397</c:v>
+                  <c:v>-5.5423728813559299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62068965517241304</c:v>
+                  <c:v>-5.4406779661016902</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72413793103448199</c:v>
+                  <c:v>-5.3389830508474496</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.82758620689655105</c:v>
+                  <c:v>-5.2372881355932197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93103448275862</c:v>
+                  <c:v>-5.13559322033898</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.03448275862068</c:v>
+                  <c:v>-5.0338983050847403</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.13793103448275</c:v>
+                  <c:v>-4.9322033898304998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2413793103448201</c:v>
+                  <c:v>-4.8305084745762699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3448275862068899</c:v>
+                  <c:v>-4.7288135593220302</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.44827586206896</c:v>
+                  <c:v>-4.6271186440677896</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.55172413793103</c:v>
+                  <c:v>-4.5254237288135597</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6551724137931001</c:v>
+                  <c:v>-4.42372881355932</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7586206896551699</c:v>
+                  <c:v>-4.3220338983050803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.86206896551724</c:v>
+                  <c:v>-4.2203389830508398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9655172413793101</c:v>
+                  <c:v>-4.1186440677966099</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0689655172413701</c:v>
+                  <c:v>-4.0169491525423702</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.17241379310344</c:v>
+                  <c:v>-3.91525423728813</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2758620689655098</c:v>
+                  <c:v>-3.8135593220338899</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3793103448275801</c:v>
+                  <c:v>-3.71186440677966</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4827586206896499</c:v>
+                  <c:v>-3.6101694915254199</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5862068965517202</c:v>
+                  <c:v>-3.5084745762711802</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.68965517241379</c:v>
+                  <c:v>-3.4067796610169401</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7931034482758599</c:v>
+                  <c:v>-3.3050847457627102</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8965517241379302</c:v>
+                  <c:v>-3.20338983050847</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>-3.1016949152542299</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.8983050847457599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.7966101694915202</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.6949152542372801</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.5932203389830502</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.49152542372881</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.3898305084745699</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.2881355932203302</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.1864406779660999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.0847457627118602</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.9830508474576201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.8813559322033799</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.77966101694915</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.6779661016949099</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.57627118644067</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.4745762711864401</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.3728813559322</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.2711864406779601</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.1694915254237199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.06779661016949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.96610169491525399</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.86440677966101598</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.76271186440677896</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.66101694915254205</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.55932203389830404</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.45762711864406702</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.35593220338983</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.25423728813559299</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.152542372881355</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-5.0847457627118502E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$24:$B$53</c:f>
+              <c:f>Лист1!$D$10:$D$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>-80.934967439460493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0822297924663302</c:v>
+                  <c:v>-69.645475102664903</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1227634232525401</c:v>
+                  <c:v>-59.788294298516398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.12272280333644</c:v>
+                  <c:v>-51.197704893572599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0832537501309498</c:v>
+                  <c:v>-43.725670553275997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0055382604407601</c:v>
+                  <c:v>-37.240059947078002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.89080717093975</c:v>
+                  <c:v>-31.623041428745399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.74035334177678</c:v>
+                  <c:v>-26.7696344166669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5555455045207198</c:v>
+                  <c:v>-22.586402322582899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3378429227712201</c:v>
+                  <c:v>-18.990273340442599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0888110224665501</c:v>
+                  <c:v>-15.9074767319813</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8101381593060299</c:v>
+                  <c:v>-13.272583440469701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.50365370288458</c:v>
+                  <c:v>-11.0276409437512</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1713476312401401</c:v>
+                  <c:v>-9.1213932338174093</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.81539184569309997</c:v>
+                  <c:v>-7.5085776906429897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.43816343428277899</c:v>
+                  <c:v>-6.1492914141897401</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.22701329780013E-2</c:v>
+                  <c:v>-5.0084202976245802</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.36942174262104599</c:v>
+                  <c:v>-4.0551247737026301</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.79375659591048398</c:v>
+                  <c:v>-3.2623767535002401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.22725574939476</c:v>
+                  <c:v>-2.6065428059783602</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.6660801842492901</c:v>
+                  <c:v>-2.0670091059553499</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.1059894202336098</c:v>
+                  <c:v>-1.62584411009621</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.54229609551418</c:v>
+                  <c:v>-1.2674953111901801</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.96981575989687</c:v>
+                  <c:v>-0.97851677368548395</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3.3828113436999598</c:v>
+                  <c:v>-0.74732447201537799</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.77493170746855</c:v>
+                  <c:v>-0.56397674113532004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-4.1391436143306102</c:v>
+                  <c:v>-0.41997740849784199</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4.4676563963443696</c:v>
+                  <c:v>-0.30809941157144</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-4.75183850793118</c:v>
+                  <c:v>-0.22222691696869301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.9821250725900903</c:v>
+                  <c:v>-0.157214148807021</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.10875930684900501</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-7.3292111181714803E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.78736512207973E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.0107344196370098E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.80599232680442E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.01914792233515E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-5.2936734361139701E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.43532433153603E-3</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00E+00">
+                  <c:v>-9.1464593085888103E-4</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00E+00">
+                  <c:v>-2.17485901016445E-4</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00E+00">
+                  <c:v>1.9027365707913099E-5</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00E+00">
+                  <c:v>3.7963128688645002E-5</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00E+00">
+                  <c:v>-1.03238349691281E-5</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00E+00">
+                  <c:v>-4.5057288988736803E-5</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.00E+00">
+                  <c:v>-3.5457839633323802E-5</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00E+00">
+                  <c:v>1.5645411364229E-5</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00E+00">
+                  <c:v>8.5337701078991302E-5</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00E+00">
+                  <c:v>1.41574105100295E-4</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00E+00">
+                  <c:v>1.5183930684203799E-4</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00E+00">
+                  <c:v>8.9759478158479803E-5</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00E+00">
+                  <c:v>-6.0107084259963799E-5</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00E+00">
+                  <c:v>-2.9909277360440302E-4</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00E+00">
+                  <c:v>-6.1266584603902798E-4</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00E+00">
+                  <c:v>-9.6992158200381797E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.3241559624308499E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.61436959158089E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.7675592267494199E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.7016624276999699E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.32902759875364E-3</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00E+00">
+                  <c:v>-5.60287134800052E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -769,227 +1690,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-048F-49F8-ACE0-CE7B923E0640}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$A$24:$A$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10344827586206801</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20689655172413701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31034482758620602</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.41379310344827502</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51724137931034397</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.62068965517241304</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.72413793103448199</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.82758620689655105</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.93103448275862</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.03448275862068</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.13793103448275</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2413793103448201</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3448275862068899</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.44827586206896</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.55172413793103</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6551724137931001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7586206896551699</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.86206896551724</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9655172413793101</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.0689655172413701</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.17241379310344</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.2758620689655098</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.3793103448275801</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4827586206896499</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.5862068965517202</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.68965517241379</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.7931034482758599</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.8965517241379302</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$C$24:$C$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>3.00000315904617</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0822297928643798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1227634232525499</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1227228033363899</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0832537501491899</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.00553826084069</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8908075876533901</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.7403477430343601</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.555419921875</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.340576171875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.05078125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.9453125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.9375</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-234</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4512</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8448</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-190464</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2105344</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2596864</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3571712</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-9830400</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>-18087936</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>20971520</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>104333312</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>53477376</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>436207616</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>524288000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-4.9821250725900903</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-048F-49F8-ACE0-CE7B923E0640}"/>
+              <c16:uniqueId val="{00000000-4C39-4A3B-8F8B-12C9313C4E61}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1001,11 +1702,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1031822511"/>
-        <c:axId val="1031823343"/>
+        <c:axId val="1403251263"/>
+        <c:axId val="1403250015"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1031822511"/>
+        <c:axId val="1403251263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,12 +1763,12 @@
             <a:endParaRPr lang="ru-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1031823343"/>
+        <c:crossAx val="1403250015"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1031823343"/>
+        <c:axId val="1403250015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1825,7 @@
             <a:endParaRPr lang="ru-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1031822511"/>
+        <c:crossAx val="1403251263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1136,6 +1837,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71923556430446189"/>
+          <c:y val="0.84540463692038481"/>
+          <c:w val="0.17243110236220471"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2296,23 +3038,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE15572-4933-4E3D-85A7-ABBA0003E716}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{691B5626-9CE2-4637-9B6F-B6846C6BBC36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,23 +3074,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE5696B-038A-422B-953B-FD7B650E8F95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1DE284-EC52-4949-8705-9D3B32337482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2632,26 +3374,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2662,658 +3404,924 @@
         <v>-4.9821250725900903</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.62927945509481698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>2.1752011936438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-0.17520119364380099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="C5">
-        <v>2.69731673193583</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-3.6292794550948102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>-1.8</v>
       </c>
       <c r="C6">
-        <v>2.91665358214824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-6.4221742880956798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="C7">
-        <v>3.0210953054937399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>-8.6268604078470101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0.42857142857142799</v>
-      </c>
-      <c r="C8">
-        <v>3.07446503708656</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.375</v>
-      </c>
-      <c r="C9">
-        <v>3.1026010679136098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>-6.0508474576271096</v>
       </c>
       <c r="B10">
-        <v>0.33333333333333298</v>
+        <v>-282.46063208138901</v>
       </c>
       <c r="C10">
-        <v>3.1173183350339202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-201.52566464192901</v>
+      </c>
+      <c r="D10">
+        <v>-80.934967439460493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>-5.9491525423728797</v>
       </c>
       <c r="B11">
-        <v>0.3</v>
+        <v>-259.49765898540102</v>
       </c>
       <c r="C11">
-        <v>3.1245202934471399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-189.852183882736</v>
+      </c>
+      <c r="D11">
+        <v>-69.645475102664903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>-5.84745762711864</v>
       </c>
       <c r="B12">
-        <v>0.27272727272727199</v>
+        <v>-238.56042901596101</v>
       </c>
       <c r="C12">
-        <v>3.1273604547000202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-178.772134717444</v>
+      </c>
+      <c r="D12">
+        <v>-59.788294298516398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>-5.7457627118644004</v>
       </c>
       <c r="B13">
-        <v>0.25</v>
+        <v>-219.457060401414</v>
       </c>
       <c r="C13">
-        <v>3.1276123168081602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-168.25935550784101</v>
+      </c>
+      <c r="D13">
+        <v>-51.197704893572599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>-5.6440677966101598</v>
       </c>
       <c r="B14">
-        <v>0.23076923076923</v>
+        <v>-202.01422506555599</v>
       </c>
       <c r="C14">
-        <v>3.1263140634741902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-158.28855451228</v>
+      </c>
+      <c r="D14">
+        <v>-43.725670553275997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>-5.5423728813559299</v>
       </c>
       <c r="B15">
-        <v>0.214285714285714</v>
+        <v>-186.07535454828701</v>
       </c>
       <c r="C15">
-        <v>3.12409269057411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-148.835294601209</v>
+      </c>
+      <c r="D15">
+        <v>-37.240059947078002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>-5.4406779661016902</v>
       </c>
       <c r="B16">
-        <v>0.2</v>
+        <v>-171.49901940122399</v>
       </c>
       <c r="C16">
-        <v>3.1213360025410899</v>
+        <v>-139.87597797247801</v>
+      </c>
+      <c r="D16">
+        <v>-31.623041428745399</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>-5.3389830508474496</v>
       </c>
       <c r="B17">
-        <v>0.1875</v>
+        <v>-158.157465283775</v>
       </c>
       <c r="C17">
-        <v>3.1182880656202898</v>
+        <v>-131.38783086710799</v>
+      </c>
+      <c r="D17">
+        <v>-26.7696344166669</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>-5.2372881355932197</v>
       </c>
       <c r="B18">
-        <v>0.17647058823529399</v>
+        <v>-145.93529060712399</v>
       </c>
       <c r="C18">
-        <v>3.1151042157781599</v>
+        <v>-123.348888284541</v>
+      </c>
+      <c r="D18">
+        <v>-22.586402322582899</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>-5.13559322033898</v>
       </c>
       <c r="B19">
-        <v>0.16666666666666599</v>
+        <v>-134.728252038731</v>
       </c>
       <c r="C19">
-        <v>3.1118837884319599</v>
+        <v>-115.737978698289</v>
+      </c>
+      <c r="D19">
+        <v>-18.990273340442599</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>-5.0338983050847403</v>
       </c>
       <c r="B20">
-        <v>0.157894736842105</v>
+        <v>-124.44218550340101</v>
       </c>
       <c r="C20">
-        <v>3.1086901316152602</v>
+        <v>-108.53470877141901</v>
+      </c>
+      <c r="D20">
+        <v>-15.9074767319813</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>-4.9322033898304998</v>
       </c>
       <c r="B21">
-        <v>0.15</v>
+        <v>-114.99203151243201</v>
       </c>
       <c r="C21">
-        <v>3.1055631331516098</v>
+        <v>-101.71944807196201</v>
+      </c>
+      <c r="D21">
+        <v>-13.272583440469701</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
+      <c r="A22">
+        <v>-4.8305084745762699</v>
+      </c>
+      <c r="B22">
+        <v>-106.300954732275</v>
+      </c>
+      <c r="C22">
+        <v>-95.273313788524305</v>
+      </c>
+      <c r="D22">
+        <v>-11.0276409437512</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
+      <c r="A23">
+        <v>-4.7288135593220302</v>
+      </c>
+      <c r="B23">
+        <v>-98.299548679534894</v>
+      </c>
+      <c r="C23">
+        <v>-89.178155445717493</v>
+      </c>
+      <c r="D23">
+        <v>-9.1213932338174093</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0</v>
+        <v>-4.6271186440677896</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>-90.925117310305197</v>
       </c>
       <c r="C24">
-        <v>3.00000315904617</v>
-      </c>
-      <c r="D24" s="1">
-        <v>-3.1590461730957002E-6</v>
+        <v>-83.416539619662203</v>
+      </c>
+      <c r="D24">
+        <v>-7.5085776906429897</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.10344827586206801</v>
+        <v>-4.5254237288135597</v>
       </c>
       <c r="B25">
-        <v>3.0822297924663302</v>
+        <v>-84.121026067735102</v>
       </c>
       <c r="C25">
-        <v>3.0822297928643798</v>
-      </c>
-      <c r="D25" s="1">
-        <v>-3.9804870510806702E-10</v>
+        <v>-77.971734653545298</v>
+      </c>
+      <c r="D25">
+        <v>-6.1492914141897401</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.20689655172413701</v>
+        <v>-4.42372881355932</v>
       </c>
       <c r="B26">
-        <v>3.1227634232525401</v>
+        <v>-77.836115670659197</v>
       </c>
       <c r="C26">
-        <v>3.1227634232525499</v>
-      </c>
-      <c r="D26" s="1">
-        <v>-1.7763568394002501E-15</v>
+        <v>-72.827695373034601</v>
+      </c>
+      <c r="D26">
+        <v>-5.0084202976245802</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.31034482758620602</v>
+        <v>-4.3220338983050803</v>
       </c>
       <c r="B27">
-        <v>3.12272280333644</v>
+        <v>-72.024172575559106</v>
       </c>
       <c r="C27">
-        <v>3.1227228033363899</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4.3076653355455998E-14</v>
+        <v>-67.969047801856505</v>
+      </c>
+      <c r="D27">
+        <v>-4.0551247737026301</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.41379310344827502</v>
+        <v>-4.2203389830508398</v>
       </c>
       <c r="B28">
-        <v>3.0832537501309498</v>
+        <v>-66.643450630724701</v>
       </c>
       <c r="C28">
-        <v>3.0832537501491899</v>
-      </c>
-      <c r="D28" s="1">
-        <v>-1.82471815435292E-11</v>
+        <v>-63.381073877224402</v>
+      </c>
+      <c r="D28">
+        <v>-3.2623767535002401</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.51724137931034397</v>
+        <v>-4.1186440677966099</v>
       </c>
       <c r="B29">
-        <v>3.0055382604407601</v>
+        <v>-61.656238971369099</v>
       </c>
       <c r="C29">
-        <v>3.00553826084069</v>
-      </c>
-      <c r="D29" s="1">
-        <v>-3.9993386380388002E-10</v>
+        <v>-59.049696165390699</v>
+      </c>
+      <c r="D29">
+        <v>-2.6065428059783602</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.62068965517241304</v>
+        <v>-4.0169491525423702</v>
       </c>
       <c r="B30">
-        <v>2.89080717093975</v>
+        <v>-57.028471683076702</v>
       </c>
       <c r="C30">
-        <v>2.8908075876533901</v>
-      </c>
-      <c r="D30" s="1">
-        <v>-4.1671364803264002E-7</v>
+        <v>-54.961462577121402</v>
+      </c>
+      <c r="D30">
+        <v>-2.0670091059553499</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.72413793103448199</v>
+        <v>-3.91525423728813</v>
       </c>
       <c r="B31">
-        <v>2.74035334177678</v>
+        <v>-52.729375193301003</v>
       </c>
       <c r="C31">
-        <v>2.7403477430343601</v>
-      </c>
-      <c r="D31" s="1">
-        <v>5.5987424243397703E-6</v>
+        <v>-51.1035310832048</v>
+      </c>
+      <c r="D31">
+        <v>-1.62584411009621</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.82758620689655105</v>
+        <v>-3.8135593220338899</v>
       </c>
       <c r="B32">
-        <v>2.5555455045207198</v>
+        <v>-48.7311497411403</v>
       </c>
       <c r="C32">
-        <v>2.555419921875</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.25582645726041E-4</v>
+        <v>-47.463654429950097</v>
+      </c>
+      <c r="D32">
+        <v>-1.2674953111901801</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.93103448275862</v>
+        <v>-3.71186440677966</v>
       </c>
       <c r="B33">
-        <v>2.3378429227712201</v>
+        <v>-45.008681628359703</v>
       </c>
       <c r="C33">
-        <v>2.340576171875</v>
+        <v>-44.030164854674197</v>
       </c>
       <c r="D33">
-        <v>-2.7332491037714798E-3</v>
+        <v>-0.97851677368548395</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1.03448275862068</v>
+        <v>-3.6101694915254199</v>
       </c>
       <c r="B34">
-        <v>2.0888110224665501</v>
+        <v>-41.539283273234702</v>
       </c>
       <c r="C34">
-        <v>2.05078125</v>
+        <v>-40.791958801219302</v>
       </c>
       <c r="D34">
-        <v>3.8029772466558101E-2</v>
+        <v>-0.74732447201537799</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1.13793103448275</v>
+        <v>-3.5084745762711802</v>
       </c>
       <c r="B35">
-        <v>1.8101381593060299</v>
+        <v>-38.302458376571998</v>
       </c>
       <c r="C35">
-        <v>2.9453125</v>
+        <v>-37.738481635436699</v>
       </c>
       <c r="D35">
-        <v>-1.1351743406939601</v>
+        <v>-0.56397674113532004</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1.2413793103448201</v>
+        <v>-3.4067796610169401</v>
       </c>
       <c r="B36">
-        <v>1.50365370288458</v>
+        <v>-35.279689769196303</v>
       </c>
       <c r="C36">
-        <v>18.9375</v>
+        <v>-34.859712360698403</v>
       </c>
       <c r="D36">
-        <v>-17.433846297115402</v>
+        <v>-0.41997740849784199</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1.3448275862068899</v>
+        <v>-3.3050847457627102</v>
       </c>
       <c r="B37">
-        <v>1.1713476312401401</v>
+        <v>-32.454247744959403</v>
       </c>
       <c r="C37">
-        <v>18.25</v>
+        <v>-32.146148333387998</v>
       </c>
       <c r="D37">
-        <v>-17.078652368759801</v>
+        <v>-0.30809941157144</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1.44827586206896</v>
+        <v>-3.20338983050847</v>
       </c>
       <c r="B38">
-        <v>0.81539184569309997</v>
+        <v>-29.8110168953719</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>-29.588789978403199</v>
       </c>
       <c r="D38">
-        <v>-32.1846081543069</v>
+        <v>-0.22222691696869301</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1.55172413793103</v>
+        <v>-3.1016949152542299</v>
       </c>
       <c r="B39">
-        <v>0.43816343428277899</v>
+        <v>-27.3363396534603</v>
       </c>
       <c r="C39">
-        <v>-234</v>
+        <v>-27.1791255046533</v>
       </c>
       <c r="D39">
-        <v>234.43816343428199</v>
+        <v>-0.157214148807021</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1.6551724137931001</v>
+        <v>-3</v>
       </c>
       <c r="B40">
-        <v>4.22701329780013E-2</v>
+        <v>-25.017874927409899</v>
       </c>
       <c r="C40">
-        <v>4512</v>
+        <v>-24.909115620560801</v>
       </c>
       <c r="D40">
-        <v>-4511.9577298670201</v>
+        <v>-0.10875930684900501</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1.7586206896551699</v>
+        <v>-2.8983050847457599</v>
       </c>
       <c r="B41">
-        <v>-0.36942174262104599</v>
+        <v>-22.844470360740299</v>
       </c>
       <c r="C41">
-        <v>8448</v>
+        <v>-22.771178249558599</v>
       </c>
       <c r="D41">
-        <v>-8448.36942174262</v>
+        <v>-7.3292111181714803E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1.86206896551724</v>
+        <v>-2.7966101694915202</v>
       </c>
       <c r="B42">
-        <v>-0.79375659591048398</v>
+        <v>-20.806046896810599</v>
       </c>
       <c r="C42">
-        <v>-190464</v>
+        <v>-20.758173245589798</v>
       </c>
       <c r="D42">
-        <v>190463.20624340401</v>
+        <v>-4.78736512207973E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1.9655172413793101</v>
+        <v>-2.6949152542372801</v>
       </c>
       <c r="B43">
-        <v>-1.22725574939476</v>
+        <v>-18.893494452804202</v>
       </c>
       <c r="C43">
-        <v>2105344</v>
+        <v>-18.8633871086078</v>
       </c>
       <c r="D43">
-        <v>-2105345.2272557402</v>
+        <v>-3.0107344196370098E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2.0689655172413701</v>
+        <v>-2.5932203389830502</v>
       </c>
       <c r="B44">
-        <v>-1.6660801842492901</v>
+        <v>-17.098577623342202</v>
       </c>
       <c r="C44">
-        <v>2596864</v>
+        <v>-17.0805177000741</v>
       </c>
       <c r="D44">
-        <v>-2596865.6660801801</v>
+        <v>-1.80599232680442E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2.17241379310344</v>
+        <v>-2.49152542372881</v>
       </c>
       <c r="B45">
-        <v>-2.1059894202336098</v>
+        <v>-15.4138504376821</v>
       </c>
       <c r="C45">
-        <v>3571712</v>
+        <v>-15.403658958458699</v>
       </c>
       <c r="D45">
-        <v>-3571714.1059894199</v>
+        <v>-1.01914792233515E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2.2758620689655098</v>
+        <v>-2.3898305084745699</v>
       </c>
       <c r="B46">
-        <v>-2.54229609551418</v>
+        <v>-13.8325792881749</v>
       </c>
       <c r="C46">
-        <v>-9830400</v>
+        <v>-13.827285614738701</v>
       </c>
       <c r="D46">
-        <v>9830397.4577038996</v>
+        <v>-5.2936734361139701E-3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2.3793103448275801</v>
+        <v>-2.2881355932203302</v>
       </c>
       <c r="B47">
-        <v>-2.96981575989687</v>
-      </c>
-      <c r="C47" s="1">
-        <v>-18087936</v>
-      </c>
-      <c r="D47" s="1">
-        <v>18087933.030184198</v>
+        <v>-12.3486732322293</v>
+      </c>
+      <c r="C47">
+        <v>-12.3462379078978</v>
+      </c>
+      <c r="D47">
+        <v>-2.43532433153603E-3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2.4827586206896499</v>
+        <v>-2.1864406779660999</v>
       </c>
       <c r="B48">
-        <v>-3.3828113436999598</v>
-      </c>
-      <c r="C48" s="1">
-        <v>20971520</v>
+        <v>-10.956620946356001</v>
+      </c>
+      <c r="C48">
+        <v>-10.9557063004252</v>
       </c>
       <c r="D48" s="1">
-        <v>-20971523.3828113</v>
+        <v>-9.1464593085888103E-4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2.5862068965517202</v>
+        <v>-2.0847457627118602</v>
       </c>
       <c r="B49">
-        <v>-3.77493170746855</v>
-      </c>
-      <c r="C49" s="1">
-        <v>104333312</v>
+        <v>-9.6514336797161704</v>
+      </c>
+      <c r="C49">
+        <v>-9.6512161938151593</v>
       </c>
       <c r="D49" s="1">
-        <v>-104333315.774931</v>
+        <v>-2.17485901016445E-4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2.68965517241379</v>
+        <v>-1.9830508474576201</v>
       </c>
       <c r="B50">
-        <v>-4.1391436143306102</v>
-      </c>
-      <c r="C50" s="1">
-        <v>53477376</v>
+        <v>-8.4285936167004696</v>
+      </c>
+      <c r="C50">
+        <v>-8.4286126440661793</v>
       </c>
       <c r="D50" s="1">
-        <v>-53477380.139143601</v>
+        <v>1.9027365707913099E-5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2.7931034482758599</v>
+        <v>-1.8813559322033799</v>
       </c>
       <c r="B51">
-        <v>-4.4676563963443696</v>
-      </c>
-      <c r="C51" s="1">
-        <v>436207616</v>
+        <v>-7.28400711405141</v>
+      </c>
+      <c r="C51">
+        <v>-7.2840450771801004</v>
       </c>
       <c r="D51" s="1">
-        <v>-436207620.46765602</v>
+        <v>3.7963128688645002E-5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2.8965517241379302</v>
+        <v>-1.77966101694915</v>
       </c>
       <c r="B52">
-        <v>-4.75183850793118</v>
-      </c>
-      <c r="C52" s="1">
-        <v>524288000</v>
+        <v>-6.2139623284963896</v>
+      </c>
+      <c r="C52">
+        <v>-6.2139520046614196</v>
       </c>
       <c r="D52" s="1">
-        <v>-524288004.75183803</v>
+        <v>-1.03238349691281E-5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>3</v>
+        <v>-1.6779661016949099</v>
       </c>
       <c r="B53">
-        <v>-4.9821250725900903</v>
+        <v>-5.2150907963054802</v>
       </c>
       <c r="C53">
-        <v>-4.9821250725900903</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
+        <v>-5.2150457390164897</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-4.5057288988736803E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-1.57627118644067</v>
+      </c>
+      <c r="B54">
+        <v>-4.2843325670923598</v>
+      </c>
+      <c r="C54">
+        <v>-4.2842971092527202</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-3.5457839633323802E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-1.4745762711864401</v>
+      </c>
+      <c r="B55">
+        <v>-3.41890453096652</v>
+      </c>
+      <c r="C55">
+        <v>-3.4189201763778798</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.5645411364229E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-1.3728813559322</v>
+      </c>
+      <c r="B56">
+        <v>-2.6162716111981599</v>
+      </c>
+      <c r="C56">
+        <v>-2.6163569488992402</v>
+      </c>
+      <c r="D56" s="1">
+        <v>8.5337701078991302E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-1.2711864406779601</v>
+      </c>
+      <c r="B57">
+        <v>-1.8741205242177601</v>
+      </c>
+      <c r="C57">
+        <v>-1.8742620983228599</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.41574105100295E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-1.1694915254237199</v>
+      </c>
+      <c r="B58">
+        <v>-1.1903358353459399</v>
+      </c>
+      <c r="C58">
+        <v>-1.1904876746527899</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.5183930684203799E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-1.06779661016949</v>
+      </c>
+      <c r="B59">
+        <v>-0.56297806241213899</v>
+      </c>
+      <c r="C59">
+        <v>-0.56306782189029703</v>
+      </c>
+      <c r="D59" s="1">
+        <v>8.9759478158479803E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-0.96610169491525399</v>
+      </c>
+      <c r="B60">
+        <v>9.7363993826271502E-3</v>
+      </c>
+      <c r="C60">
+        <v>9.7965064668871192E-3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-6.0107084259963799E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-0.86440677966101598</v>
+      </c>
+      <c r="B61">
+        <v>0.52945373915175997</v>
+      </c>
+      <c r="C61">
+        <v>0.52975283192536504</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-2.9909277360440302E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-0.76271186440677896</v>
+      </c>
+      <c r="B62">
+        <v>0.997699769650784</v>
+      </c>
+      <c r="C62">
+        <v>0.99831243549682303</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-6.1266584603902798E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-0.66101694915254205</v>
+      </c>
+      <c r="B63">
+        <v>1.4158957206168199</v>
+      </c>
+      <c r="C63">
+        <v>1.4168656421988199</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-9.6992158200381797E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-0.55932203389830404</v>
+      </c>
+      <c r="B64">
+        <v>1.7853729495931301</v>
+      </c>
+      <c r="C64">
+        <v>1.7866971055555601</v>
+      </c>
+      <c r="D64">
+        <v>-1.3241559624308499E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-0.45762711864406702</v>
+      </c>
+      <c r="B65">
+        <v>2.1073867225070599</v>
+      </c>
+      <c r="C65">
+        <v>2.10900109209864</v>
+      </c>
+      <c r="D65">
+        <v>-1.61436959158089E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-0.35593220338983</v>
+      </c>
+      <c r="B66">
+        <v>2.38312920664112</v>
+      </c>
+      <c r="C66">
+        <v>2.3848967658678699</v>
+      </c>
+      <c r="D66">
+        <v>-1.7675592267494199E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-0.25423728813559299</v>
+      </c>
+      <c r="B67">
+        <v>2.6137418104843002</v>
+      </c>
+      <c r="C67">
+        <v>2.6154434729120002</v>
+      </c>
+      <c r="D67">
+        <v>-1.7016624276999699E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-0.152542372881355</v>
+      </c>
+      <c r="B68">
+        <v>2.8003269981907399</v>
+      </c>
+      <c r="C68">
+        <v>2.80165602578949</v>
+      </c>
+      <c r="D68">
+        <v>-1.32902759875364E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>-5.0847457627118502E-2</v>
+      </c>
+      <c r="B69">
+        <v>2.94395970093453</v>
+      </c>
+      <c r="C69">
+        <v>2.9445199880693398</v>
+      </c>
+      <c r="D69" s="1">
+        <v>-5.60287134800052E-4</v>
       </c>
     </row>
   </sheetData>
